--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3776604.436479263</v>
+        <v>3772271.951658572</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7714591.37065021</v>
+        <v>7714591.370650209</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>297.6715496509537</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>341.762586537471</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.61199297579852</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>199.1583156880904</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.31656064018903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>40.09050805626379</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.283679164003906</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>158.2240859585677</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576167</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>33.48499328953009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>213.6608990998122</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881284</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>1.839588425939787</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>26.07046444232094</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>151.8518831495024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>130.3963959210122</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>78.71385496658196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>12.96996784159862</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>135.3135037226517</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.879692121443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>53.3007612348484</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>105.3219429113318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>50.06209150957608</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>5.42162358678916</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.807401540017</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.807401540017</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4418,7 +4418,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.1627947174723</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U5" t="n">
-        <v>2046.138230988392</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>1715.075343644822</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1715.075343644822</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1715.075343644822</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>120.1212846776635</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>120.1212846776635</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>108.3618485648683</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224073</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
         <v>1268.578514636218</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5772922261132</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6411092982063</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>665.5244698858705</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2445.104913453049</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6080,7 +6080,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1608.876909444017</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1319.459739407057</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138411</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>175.8744207939068</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>229.7425191625314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>229.7425191625314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,52 +7408,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4852666057155</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>449.4852666057155</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>282.2891673205955</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2396.395314378669</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2213.540480033573</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1993.939015056514</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1704.863788400712</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1450.179300194825</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>12.04875628922494</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>179.1866975757048</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>226.0671788815071</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>88.18825743108263</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>205.6146855104962</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>31.93331737597609</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.257951202384959</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.31315520054558</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>211.9838267404991</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
@@ -26337,25 +26337,25 @@
         <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577086</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670456</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670417</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26444,13 +26444,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26459,7 +26459,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670416</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.7818346165</v>
+        <v>-93901.78183461647</v>
       </c>
       <c r="C6" t="n">
+        <v>496066.097379928</v>
+      </c>
+      <c r="D6" t="n">
         <v>496066.0973799281</v>
       </c>
-      <c r="D6" t="n">
-        <v>496066.0973799279</v>
-      </c>
       <c r="E6" t="n">
-        <v>-283773.6304777809</v>
+        <v>-284121.0097321373</v>
       </c>
       <c r="F6" t="n">
-        <v>660599.1472799283</v>
+        <v>660251.7680255714</v>
       </c>
       <c r="G6" t="n">
-        <v>660599.1472799283</v>
+        <v>660251.7680255711</v>
       </c>
       <c r="H6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255717</v>
       </c>
       <c r="I6" t="n">
-        <v>660599.1472799287</v>
+        <v>660251.7680255716</v>
       </c>
       <c r="J6" t="n">
-        <v>484175.9280873354</v>
+        <v>483828.5488329784</v>
       </c>
       <c r="K6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255714</v>
       </c>
       <c r="L6" t="n">
-        <v>660599.1472799284</v>
+        <v>660251.7680255716</v>
       </c>
       <c r="M6" t="n">
-        <v>536390.6365718695</v>
+        <v>536043.2573175128</v>
       </c>
       <c r="N6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255715</v>
       </c>
       <c r="O6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255712</v>
       </c>
       <c r="P6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255712</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245868</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>30.08070881918121</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>7.478382179942002</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.2199872061388</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>52.06585182019887</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.2680927119058</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>366.7855376854477</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>321.468579306131</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>93.91355736526035</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041058</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32083,13 +32083,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>518.4394551593577</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33046,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060965</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820875</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L27" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88662398579289</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3772271.951658572</v>
+        <v>3774032.481961357</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7714591.370650209</v>
+        <v>7714591.370650208</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>46.69972942218443</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>341.762586537471</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>60.46179076613092</v>
+        <v>83.36368966602291</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.09050805626379</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576167</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>30.97191586387593</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>213.6608990998122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3963959210122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695615</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>16.92025364381838</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.96996784159862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>50.06209150957608</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>5.42162358678916</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
         <v>478.8522906713811</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="W2" t="n">
-        <v>2351.934357141989</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.468598880909</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,19 +4421,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.076575092838</v>
+        <v>2557.914654411319</v>
       </c>
       <c r="T5" t="n">
-        <v>2636.076575092838</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="U5" t="n">
-        <v>2636.076575092838</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.013687749267</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.245032479153</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.779274218073</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641994</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>494.1501011631125</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>108.3618485648683</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5120,7 +5120,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>434.0093569897584</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>266.8132577046384</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>125.1014265468364</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5360,13 +5360,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5606,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,10 +6302,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
         <v>454.6048385560546</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6548,19 +6548,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.3315352860773</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2396.395314378669</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2213.540480033573</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1993.939015056514</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1704.863788400712</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1450.179300194825</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1160.762130157864</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>932.7725792598471</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.980000116317</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7642,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.586158026164</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>50.2939204546896</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>12.04875628922494</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>88.18825743108263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.6146855104962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.31315520054558</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>211.9838267404991</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577086</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.904699919625022e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670417</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26441,10 +26441,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
+        <v>5067.592601670399</v>
+      </c>
+      <c r="K4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26453,13 +26453,13 @@
         <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.78183461647</v>
+        <v>-93901.7818346167</v>
       </c>
       <c r="C6" t="n">
+        <v>496066.0973799281</v>
+      </c>
+      <c r="D6" t="n">
         <v>496066.097379928</v>
       </c>
-      <c r="D6" t="n">
-        <v>496066.0973799281</v>
-      </c>
       <c r="E6" t="n">
-        <v>-284121.0097321373</v>
+        <v>-283808.3684032162</v>
       </c>
       <c r="F6" t="n">
-        <v>660251.7680255714</v>
+        <v>660564.4093544923</v>
       </c>
       <c r="G6" t="n">
-        <v>660251.7680255711</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="H6" t="n">
-        <v>660251.7680255717</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="I6" t="n">
-        <v>660251.7680255716</v>
+        <v>660564.4093544929</v>
       </c>
       <c r="J6" t="n">
-        <v>483828.5488329784</v>
+        <v>484141.1901618997</v>
       </c>
       <c r="K6" t="n">
-        <v>660251.7680255714</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="L6" t="n">
-        <v>660251.7680255716</v>
+        <v>660564.4093544929</v>
       </c>
       <c r="M6" t="n">
-        <v>536043.2573175128</v>
+        <v>536355.8986464345</v>
       </c>
       <c r="N6" t="n">
-        <v>660251.7680255715</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="O6" t="n">
-        <v>660251.7680255712</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="P6" t="n">
-        <v>660251.7680255712</v>
+        <v>660564.4093544928</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245872</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>7.77867315262727</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,10 +27438,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.478382179942002</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>113.9539220428406</v>
+        <v>91.05202314294863</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.3051017946059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>366.7855376854477</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>168.4323246176524</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758288</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.806844538052015</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286976</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>518.4394551593577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>349.3304751113902</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8598010172136</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060965</v>
@@ -35187,7 +35187,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066793</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35728,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>376.3054212373395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>211.4890361370312</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>476.2000925419567</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>376.3054212373395</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
